--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A182505</t>
+          <t>A182511</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A182511</t>
+          <t>A182538</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A182538</t>
+          <t>A182508</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A182508</t>
+          <t>A182509</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A182509</t>
+          <t>A182537</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A182537</t>
+          <t>A214852</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A214852</t>
+          <t>A214755</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -624,14 +624,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A214621</t>
+          <t>A214916</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -647,14 +647,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A214755</t>
+          <t>A214754</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A214916</t>
+          <t>A214412</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -693,14 +693,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A214754</t>
+          <t>A214913</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -716,14 +716,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A214412</t>
+          <t>A214877</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A214913</t>
+          <t>A214961</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -762,14 +762,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A214877</t>
+          <t>A214619</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A214961</t>
+          <t>A214251</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A214619</t>
+          <t>A214230</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -831,14 +831,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A214251</t>
+          <t>A215526</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -854,14 +854,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A214230</t>
+          <t>A215452</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A215526</t>
+          <t>A215581</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -900,14 +900,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A215452</t>
+          <t>A215453</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A215581</t>
+          <t>A215448</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -946,14 +946,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A215453</t>
+          <t>A215468</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -969,14 +969,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A215448</t>
+          <t>A215488</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A215468</t>
+          <t>A215454</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A215488</t>
+          <t>A215460</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A215454</t>
+          <t>A215530</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A215460</t>
+          <t>A215470</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A215530</t>
+          <t>A215451</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1107,14 +1107,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A215470</t>
+          <t>A215471</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1130,14 +1130,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A215451</t>
+          <t>A218218</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1153,14 +1153,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A215471</t>
+          <t>A219612</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1176,14 +1176,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A218218</t>
+          <t>A221158</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1199,14 +1199,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A219612</t>
+          <t>A225728</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1222,14 +1222,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A221158</t>
+          <t>A225727</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A225728</t>
+          <t>A228448</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A225727</t>
+          <t>A228449</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A228448</t>
+          <t>A228126</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A228449</t>
+          <t>A228162</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A228126</t>
+          <t>A232115</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A228162</t>
+          <t>A232863</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A232115</t>
+          <t>A234362</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A232863</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A234362</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,14 +1613,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A238392</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1751,37 +1751,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A237017</t>
+          <t>A239287</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Invalid syntax</t>
+          <t>Print without parentheses</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SyntaxError: invalid syntax</t>
+          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1843,14 +1843,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A242067</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1866,14 +1866,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A242067</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,14 +2211,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A266225</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,14 +2303,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2326,14 +2326,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,14 +2418,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2487,14 +2487,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A277044</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A277123</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,14 +2556,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A277044</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A277123</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,14 +2625,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279515</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,14 +2717,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2763,14 +2763,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2809,14 +2809,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2924,14 +2924,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2947,14 +2947,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280407</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A280407</t>
+          <t>A280391</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3039,7 +3039,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,14 +3108,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,14 +3246,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283322</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3269,14 +3269,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,14 +3315,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A283322</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3338,14 +3338,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,14 +3407,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,14 +3476,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3499,14 +3499,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3522,14 +3522,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3614,14 +3614,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3729,14 +3729,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3775,14 +3775,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3798,14 +3798,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3821,14 +3821,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3844,14 +3844,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3890,14 +3890,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3913,14 +3913,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3936,14 +3936,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3959,14 +3959,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A286237</t>
+          <t>A303065</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3982,14 +3982,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A286246</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4005,14 +4005,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A300730</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4028,14 +4028,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A303065</t>
+          <t>A330072</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4043,75 +4043,6 @@
         </is>
       </c>
       <c r="E157" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>A309655</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>59</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>A330072</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>23</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A182511</t>
+          <t>A182538</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A182538</t>
+          <t>A182508</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A182508</t>
+          <t>A182509</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -532,14 +532,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A182509</t>
+          <t>A182537</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A182537</t>
+          <t>A214852</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A214852</t>
+          <t>A214755</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -601,14 +601,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A214755</t>
+          <t>A214916</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A214916</t>
+          <t>A214754</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -647,14 +647,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A214754</t>
+          <t>A214412</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A214412</t>
+          <t>A214913</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -693,14 +693,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A214913</t>
+          <t>A214877</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -716,14 +716,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A214877</t>
+          <t>A214961</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A214961</t>
+          <t>A214619</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A214619</t>
+          <t>A214251</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A214251</t>
+          <t>A214230</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -808,14 +808,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A214230</t>
+          <t>A215526</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A215526</t>
+          <t>A215452</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -854,14 +854,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A215452</t>
+          <t>A215581</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A215581</t>
+          <t>A215453</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -900,14 +900,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A215453</t>
+          <t>A215448</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A215448</t>
+          <t>A215468</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -946,14 +946,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A215468</t>
+          <t>A215488</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -969,14 +969,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A215488</t>
+          <t>A215454</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A215454</t>
+          <t>A215460</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A215460</t>
+          <t>A215530</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A215530</t>
+          <t>A215470</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A215470</t>
+          <t>A215451</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A215451</t>
+          <t>A215471</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1107,14 +1107,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A215471</t>
+          <t>A218218</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1130,14 +1130,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A218218</t>
+          <t>A219612</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1153,14 +1153,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A219612</t>
+          <t>A221158</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1176,14 +1176,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A221158</t>
+          <t>A225728</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A225728</t>
+          <t>A225727</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1222,14 +1222,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A225727</t>
+          <t>A228448</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A228448</t>
+          <t>A228449</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1268,14 +1268,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A228449</t>
+          <t>A228126</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A228126</t>
+          <t>A228162</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1314,14 +1314,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A228162</t>
+          <t>A232115</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A232115</t>
+          <t>A232863</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A232863</t>
+          <t>A234362</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A234362</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,14 +1613,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A238392</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239287</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1774,14 +1774,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242067</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1843,14 +1843,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A242067</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,14 +2211,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A266225</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,14 +2303,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2326,14 +2326,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,14 +2418,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A277044</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A277044</t>
+          <t>A277123</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A277123</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,14 +2625,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279515</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,14 +2671,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,14 +2717,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280407</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A280407</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2970,14 +2970,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280391</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3039,14 +3039,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,14 +3108,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A283322</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,14 +3246,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A283322</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3269,14 +3269,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,14 +3315,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3499,14 +3499,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3522,14 +3522,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3614,7 +3614,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,14 +3706,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3729,14 +3729,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3775,14 +3775,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3798,14 +3798,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3821,14 +3821,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3844,14 +3844,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3890,14 +3890,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A286237</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3913,14 +3913,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A286246</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3936,14 +3936,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A300730</t>
+          <t>A303065</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3959,14 +3959,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A303065</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3982,14 +3982,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A309655</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4005,14 +4005,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A317248</t>
+          <t>A330072</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4020,29 +4020,6 @@
         </is>
       </c>
       <c r="E156" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>A330072</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>23</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,14 +854,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A215581</t>
+          <t>A215453</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A215453</t>
+          <t>A215448</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -900,14 +900,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A215448</t>
+          <t>A215468</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A215468</t>
+          <t>A215488</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -946,14 +946,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A215488</t>
+          <t>A215454</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -969,14 +969,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A215454</t>
+          <t>A215460</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A215460</t>
+          <t>A215530</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A215530</t>
+          <t>A215470</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A215470</t>
+          <t>A215451</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A215451</t>
+          <t>A215471</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A215471</t>
+          <t>A218218</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1107,14 +1107,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A218218</t>
+          <t>A219612</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1130,14 +1130,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A219612</t>
+          <t>A221158</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1153,14 +1153,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A221158</t>
+          <t>A225728</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A225728</t>
+          <t>A225727</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1199,14 +1199,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A225727</t>
+          <t>A228448</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A228448</t>
+          <t>A228449</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1245,14 +1245,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A228449</t>
+          <t>A228126</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A228126</t>
+          <t>A228162</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A228162</t>
+          <t>A232115</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1314,14 +1314,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A232115</t>
+          <t>A232863</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A232863</t>
+          <t>A234362</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A234362</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1452,14 +1452,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,14 +1613,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A238392</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239287</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1774,14 +1774,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242067</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A242067</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1866,14 +1866,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A266225</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,14 +2211,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,14 +2303,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2349,14 +2349,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,14 +2418,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A277044</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A277123</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,14 +2556,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279515</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,14 +2625,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2671,14 +2671,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2717,14 +2717,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,14 +2855,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280407</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A280407</t>
+          <t>A280391</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2947,7 +2947,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2970,14 +2970,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,14 +3016,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,14 +3108,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283322</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A283322</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,14 +3246,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3269,14 +3269,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,14 +3315,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3338,14 +3338,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,14 +3407,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,14 +3476,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3522,14 +3522,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,14 +3706,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3729,14 +3729,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3798,14 +3798,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3821,14 +3821,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3844,14 +3844,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3867,14 +3867,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A286237</t>
+          <t>A303065</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3890,14 +3890,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A286246</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3913,14 +3913,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A300730</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3928,98 +3928,6 @@
         </is>
       </c>
       <c r="E152" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>A303065</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>7</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>A309655</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>59</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>A330072</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>23</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A234362</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1429,14 +1429,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,14 +1613,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A238392</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239287</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1774,14 +1774,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242067</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A242067</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1843,14 +1843,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1866,14 +1866,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A266225</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,14 +2211,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2326,14 +2326,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2349,14 +2349,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,14 +2418,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2487,7 +2487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279515</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,14 +2556,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2579,14 +2579,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,14 +2625,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,14 +2671,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,14 +2809,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280407</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A280407</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280391</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2947,14 +2947,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2970,14 +2970,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,14 +3016,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A283322</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A283322</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3269,7 +3269,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3338,7 +3338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3361,14 +3361,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3407,14 +3407,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,14 +3476,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3522,7 +3522,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3614,14 +3614,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,14 +3706,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3729,14 +3729,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3798,14 +3798,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A286237</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3821,14 +3821,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A286246</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3844,14 +3844,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A300730</t>
+          <t>A303065</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3867,14 +3867,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A303065</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3890,14 +3890,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A309655</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3905,29 +3905,6 @@
         </is>
       </c>
       <c r="E151" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>59</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A182538</t>
+          <t>A182508</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A182508</t>
+          <t>A182509</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A182509</t>
+          <t>A214852</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,14 +532,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A182537</t>
+          <t>A214755</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A214852</t>
+          <t>A214916</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A214755</t>
+          <t>A214754</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -601,14 +601,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A214916</t>
+          <t>A214412</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A214754</t>
+          <t>A214913</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -647,14 +647,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A214412</t>
+          <t>A214877</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A214913</t>
+          <t>A214961</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -693,14 +693,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A214877</t>
+          <t>A214619</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -716,14 +716,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A214961</t>
+          <t>A214251</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A214619</t>
+          <t>A214230</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -762,14 +762,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A214251</t>
+          <t>A215526</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A214230</t>
+          <t>A215452</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -808,14 +808,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A215526</t>
+          <t>A215453</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A215452</t>
+          <t>A215448</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -854,14 +854,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A215453</t>
+          <t>A215468</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A215448</t>
+          <t>A215488</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -900,14 +900,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A215468</t>
+          <t>A215454</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A215488</t>
+          <t>A215460</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -946,14 +946,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A215454</t>
+          <t>A215530</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -969,14 +969,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A215460</t>
+          <t>A215470</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A215530</t>
+          <t>A215451</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A215470</t>
+          <t>A215471</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A215451</t>
+          <t>A218218</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A215471</t>
+          <t>A219612</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A218218</t>
+          <t>A221158</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1107,14 +1107,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A219612</t>
+          <t>A225728</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1130,14 +1130,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A221158</t>
+          <t>A225727</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1153,14 +1153,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A225728</t>
+          <t>A228448</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1176,14 +1176,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A225727</t>
+          <t>A228449</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1199,14 +1199,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A228448</t>
+          <t>A228126</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A228449</t>
+          <t>A228162</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1245,14 +1245,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A228126</t>
+          <t>A232115</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A228162</t>
+          <t>A232863</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A232115</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1314,14 +1314,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A232863</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A238392</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A239287</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1774,14 +1774,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A242067</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,14 +1820,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1843,14 +1843,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1866,14 +1866,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A266225</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,14 +2303,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2349,14 +2349,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,14 +2418,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279515</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2579,14 +2579,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2625,14 +2625,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,14 +2809,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280391</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A280407</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2855,14 +2855,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2947,14 +2947,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2970,14 +2970,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,14 +3016,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A283322</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,14 +3246,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3269,14 +3269,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3338,14 +3338,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3453,7 +3453,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3499,14 +3499,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3614,14 +3614,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,14 +3706,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3729,14 +3729,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3767,144 +3767,6 @@
         </is>
       </c>
       <c r="E145" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>A286237</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>A286246</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>A300730</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>13</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>A303065</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>7</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>A309655</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="n">
-        <v>59</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,14 +2464,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A279515</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,14 +2556,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2579,14 +2579,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,14 +2717,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,14 +2809,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A280391</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,14 +2855,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2947,14 +2947,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2970,14 +2970,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,14 +3016,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,14 +3154,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,14 +3246,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3269,14 +3269,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3292,14 +3292,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3315,14 +3315,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3338,14 +3338,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,14 +3407,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3499,7 +3499,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3522,14 +3522,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3614,14 +3614,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3637,14 +3637,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3660,14 +3660,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A286237</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A286246</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3706,14 +3706,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A300730</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3721,52 +3721,6 @@
         </is>
       </c>
       <c r="E143" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>A309655</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>59</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>

--- a/reports/compile_errors.xlsx
+++ b/reports/compile_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,14 +969,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A215470</t>
+          <t>A215451</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -992,14 +992,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A215451</t>
+          <t>A215471</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A215471</t>
+          <t>A218218</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A218218</t>
+          <t>A219612</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A219612</t>
+          <t>A221158</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1084,14 +1084,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A221158</t>
+          <t>A225728</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A225728</t>
+          <t>A225727</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1130,14 +1130,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A225727</t>
+          <t>A228448</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A228448</t>
+          <t>A228449</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1176,14 +1176,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A228449</t>
+          <t>A228126</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1199,14 +1199,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A228126</t>
+          <t>A232115</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1222,14 +1222,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A228162</t>
+          <t>A232863</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A232115</t>
+          <t>A235269</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A232863</t>
+          <t>A235707</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1291,14 +1291,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A235269</t>
+          <t>A236346</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1314,14 +1314,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A235707</t>
+          <t>A236347</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1337,14 +1337,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A236346</t>
+          <t>A236443</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1360,14 +1360,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A236347</t>
+          <t>A236692</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1383,14 +1383,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A236443</t>
+          <t>A236532</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1406,14 +1406,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A236692</t>
+          <t>A236866</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A236532</t>
+          <t>A237495</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1452,14 +1452,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A236866</t>
+          <t>A237188</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1475,14 +1475,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A237495</t>
+          <t>A237929</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A237188</t>
+          <t>A237191</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1521,14 +1521,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A237929</t>
+          <t>A237190</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1544,14 +1544,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A237191</t>
+          <t>A237882</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1567,14 +1567,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A237190</t>
+          <t>A239879</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A237882</t>
+          <t>A239519</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1613,14 +1613,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A238392</t>
+          <t>A239580</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A239287</t>
+          <t>A242427</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A239879</t>
+          <t>A242426</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1682,14 +1682,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A239519</t>
+          <t>A242281</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1705,14 +1705,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A239580</t>
+          <t>A242346</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1728,14 +1728,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A242427</t>
+          <t>A243589</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A242426</t>
+          <t>A245390</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1774,14 +1774,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A242281</t>
+          <t>A247025</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1797,14 +1797,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A242346</t>
+          <t>A247891</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A243589</t>
+          <t>A248786</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1843,14 +1843,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A245390</t>
+          <t>A248739</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1866,14 +1866,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A247025</t>
+          <t>A249991</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A247891</t>
+          <t>A249988</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1912,14 +1912,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A248786</t>
+          <t>A251743</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1935,14 +1935,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A248739</t>
+          <t>A257501</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1958,14 +1958,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A249991</t>
+          <t>A259697</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A249988</t>
+          <t>A264749</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A251743</t>
+          <t>A266882</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,14 +2027,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A257501</t>
+          <t>A266552</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2050,14 +2050,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A259697</t>
+          <t>A266281</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2073,14 +2073,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A264749</t>
+          <t>A268605</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2096,14 +2096,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A266225</t>
+          <t>A268834</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A266882</t>
+          <t>A268719</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A266552</t>
+          <t>A269306</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2165,14 +2165,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A266281</t>
+          <t>A273039</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A268605</t>
+          <t>A275481</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2211,14 +2211,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A268834</t>
+          <t>A275545</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A268719</t>
+          <t>A275544</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2257,14 +2257,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A269306</t>
+          <t>A278933</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2280,14 +2280,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A273039</t>
+          <t>A279063</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2303,14 +2303,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A275481</t>
+          <t>A279018</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2326,14 +2326,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A275545</t>
+          <t>A279905</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2349,14 +2349,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A275544</t>
+          <t>A279483</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2372,14 +2372,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A278933</t>
+          <t>A279506</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2395,14 +2395,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A279063</t>
+          <t>A279909</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A279018</t>
+          <t>A279273</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2441,14 +2441,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A279905</t>
+          <t>A279409</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2464,14 +2464,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A279483</t>
+          <t>A280056</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A279506</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2510,14 +2510,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A279909</t>
+          <t>A280344</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2533,14 +2533,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A279273</t>
+          <t>A280058</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2556,14 +2556,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A279409</t>
+          <t>A280844</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2579,14 +2579,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A280056</t>
+          <t>A280914</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2602,14 +2602,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A280987</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A280344</t>
+          <t>A280343</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2648,14 +2648,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A280058</t>
+          <t>A280364</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2671,14 +2671,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A280844</t>
+          <t>A280408</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2694,14 +2694,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A280914</t>
+          <t>A281551</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2717,14 +2717,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A280987</t>
+          <t>A281550</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A280343</t>
+          <t>A281227</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2763,14 +2763,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A280364</t>
+          <t>A281379</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2786,14 +2786,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A280408</t>
+          <t>A281378</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2809,14 +2809,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A281551</t>
+          <t>A283941</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2832,14 +2832,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A281550</t>
+          <t>A283845</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2855,14 +2855,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A281227</t>
+          <t>A283718</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2878,14 +2878,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A281379</t>
+          <t>A283943</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2901,14 +2901,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A281378</t>
+          <t>A283654</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2924,14 +2924,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A283941</t>
+          <t>A283942</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A283845</t>
+          <t>A284551</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2970,7 +2970,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A283718</t>
+          <t>A285733</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2993,14 +2993,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A283943</t>
+          <t>A285788</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3016,14 +3016,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A283654</t>
+          <t>A285731</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3039,14 +3039,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A283942</t>
+          <t>A285730</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A284551</t>
+          <t>A286234</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3085,14 +3085,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A285733</t>
+          <t>A286245</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3108,14 +3108,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A285788</t>
+          <t>A286244</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3131,14 +3131,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A285731</t>
+          <t>A286153</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A285730</t>
+          <t>A286235</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3177,14 +3177,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A286234</t>
+          <t>A286564</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A286245</t>
+          <t>A286148</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3223,14 +3223,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A286244</t>
+          <t>A286158</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A286153</t>
+          <t>A286159</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3269,7 +3269,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A286235</t>
+          <t>A286238</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3292,7 +3292,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A286564</t>
+          <t>A286562</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3315,7 +3315,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A286148</t>
+          <t>A286098</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3338,14 +3338,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A286158</t>
+          <t>A286249</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A286159</t>
+          <t>A286099</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3384,14 +3384,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A286238</t>
+          <t>A286248</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3407,14 +3407,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A286562</t>
+          <t>A286239</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3430,14 +3430,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A286098</t>
+          <t>A286247</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A286249</t>
+          <t>A286193</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3476,14 +3476,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A286099</t>
+          <t>A286236</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3499,14 +3499,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A286248</t>
+          <t>A286237</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3522,14 +3522,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A286239</t>
+          <t>A286246</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3545,14 +3545,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A286247</t>
+          <t>A300730</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3568,14 +3568,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A286193</t>
+          <t>A309655</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A286236</t>
+          <t>A317248</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3606,121 +3606,6 @@
         </is>
       </c>
       <c r="E138" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>A286237</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>A286246</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>A300730</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>13</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>A309655</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>A317248</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>59</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Print without parentheses</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
         <is>
           <t>SyntaxError: Missing parentheses in call to 'print'. Did you mean print(...)?</t>
         </is>
